--- a/data/Summary_evolution.xlsx
+++ b/data/Summary_evolution.xlsx
@@ -1,133 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pstephan\Documents\github\ConservationStatus\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C580124-8974-4ED3-AB0F-CDDEA1448302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
-  <si>
-    <t>Groupe</t>
-  </si>
-  <si>
-    <t>Status_evolution</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Perc_spp</t>
-  </si>
-  <si>
-    <t>Chimères</t>
-  </si>
-  <si>
-    <t>LC-LC</t>
-  </si>
-  <si>
-    <t>NT-LC</t>
-  </si>
-  <si>
-    <t>NT-VU</t>
-  </si>
-  <si>
-    <t>Raies</t>
-  </si>
-  <si>
-    <t>CR-CR</t>
-  </si>
-  <si>
-    <t>DD-CR</t>
-  </si>
-  <si>
-    <t>DD-VU</t>
-  </si>
-  <si>
-    <t>EN-CR</t>
-  </si>
-  <si>
-    <t>EN-EN</t>
-  </si>
-  <si>
-    <t>LC-NT</t>
-  </si>
-  <si>
-    <t>LR/nt-NT</t>
-  </si>
-  <si>
-    <t>NT-CR</t>
-  </si>
-  <si>
-    <t>NT-NT</t>
-  </si>
-  <si>
-    <t>VU-EN</t>
-  </si>
-  <si>
-    <t>VU-VU</t>
-  </si>
-  <si>
-    <t>Requins</t>
-  </si>
-  <si>
-    <t>DD-EN</t>
-  </si>
-  <si>
-    <t>DD-LC</t>
-  </si>
-  <si>
-    <t>LC-VU</t>
-  </si>
-  <si>
-    <t>VU-CR</t>
-  </si>
-  <si>
-    <t>Deterioration vers CR, EN, VU ou NT</t>
-  </si>
-  <si>
-    <t>Stable CR, EN, VU ou NT</t>
-  </si>
-  <si>
-    <t>Amelioration</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>DD départ</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,39 +350,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
-    <col min="11" max="12" width="22" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Groupe</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status_evolution</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Perc_spp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chimères</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LC-LC</t>
+        </is>
       </c>
       <c r="C2">
         <v>3</v>
@@ -547,12 +397,16 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chimères</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NT-LC</t>
+        </is>
       </c>
       <c r="C3">
         <v>1</v>
@@ -561,12 +415,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chimères</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NT-VU</t>
+        </is>
       </c>
       <c r="C4">
         <v>1</v>
@@ -575,9 +433,11 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chimères</t>
+        </is>
       </c>
       <c r="C5">
         <v>1</v>
@@ -586,12 +446,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CR-CR</t>
+        </is>
       </c>
       <c r="C6">
         <v>1</v>
@@ -600,12 +464,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DD-CR</t>
+        </is>
       </c>
       <c r="C7">
         <v>2</v>
@@ -614,12 +482,16 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DD-VU</t>
+        </is>
       </c>
       <c r="C8">
         <v>3</v>
@@ -627,28 +499,17 @@
       <c r="D8">
         <v>3.06</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EN-CR</t>
+        </is>
       </c>
       <c r="C9">
         <v>1</v>
@@ -656,36 +517,17 @@
       <c r="D9">
         <v>1.02</v>
       </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f>SUM(C6:C20)</f>
-        <v>36</v>
-      </c>
-      <c r="J9">
-        <f>SUM(C7+C8+C9+C14+C17+C18+C13+C12)</f>
-        <v>13</v>
-      </c>
-      <c r="K9">
-        <f>SUM(C6+C10+C19)</f>
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <f xml:space="preserve"> SUM(C7+C8)</f>
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <f>SUM(C15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EN-EN</t>
+        </is>
       </c>
       <c r="C10">
         <v>1</v>
@@ -693,36 +535,17 @@
       <c r="D10">
         <v>1.02</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <f>SUM(C21:C35)</f>
-        <v>55</v>
-      </c>
-      <c r="J10">
-        <f>SUM(C22+C24+C25+C27+C28+C31+C32+C33)</f>
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <f>SUM(C21+C30+C34)</f>
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <f xml:space="preserve"> SUM(C22+C23+C24)</f>
-        <v>11</v>
-      </c>
-      <c r="M10">
-        <f>SUM(C29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LC-LC</t>
+        </is>
       </c>
       <c r="C11">
         <v>4</v>
@@ -731,12 +554,16 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LC-NT</t>
+        </is>
       </c>
       <c r="C12">
         <v>1</v>
@@ -745,12 +572,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LR/nt-NT</t>
+        </is>
       </c>
       <c r="C13">
         <v>2</v>
@@ -759,12 +590,16 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NT-CR</t>
+        </is>
       </c>
       <c r="C14">
         <v>1</v>
@@ -773,12 +608,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NT-LC</t>
+        </is>
       </c>
       <c r="C15">
         <v>1</v>
@@ -787,12 +626,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NT-NT</t>
+        </is>
       </c>
       <c r="C16">
         <v>1</v>
@@ -801,12 +644,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NT-VU</t>
+        </is>
       </c>
       <c r="C17">
         <v>1</v>
@@ -815,12 +662,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VU-EN</t>
+        </is>
       </c>
       <c r="C18">
         <v>2</v>
@@ -829,12 +680,16 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VU-VU</t>
+        </is>
       </c>
       <c r="C19">
         <v>1</v>
@@ -843,9 +698,11 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Raies</t>
+        </is>
       </c>
       <c r="C20">
         <v>14</v>
@@ -854,12 +711,16 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CR-CR</t>
+        </is>
       </c>
       <c r="C21">
         <v>3</v>
@@ -868,12 +729,16 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DD-EN</t>
+        </is>
       </c>
       <c r="C22">
         <v>2</v>
@@ -882,12 +747,16 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DD-LC</t>
+        </is>
       </c>
       <c r="C23">
         <v>6</v>
@@ -896,12 +765,16 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DD-VU</t>
+        </is>
       </c>
       <c r="C24">
         <v>3</v>
@@ -910,12 +783,16 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EN-CR</t>
+        </is>
       </c>
       <c r="C25">
         <v>2</v>
@@ -924,12 +801,16 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LC-LC</t>
+        </is>
       </c>
       <c r="C26">
         <v>4</v>
@@ -938,12 +819,16 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LC-NT</t>
+        </is>
       </c>
       <c r="C27">
         <v>3</v>
@@ -952,12 +837,16 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LC-VU</t>
+        </is>
       </c>
       <c r="C28">
         <v>1</v>
@@ -966,12 +855,16 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NT-LC</t>
+        </is>
       </c>
       <c r="C29">
         <v>1</v>
@@ -980,26 +873,34 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NT-NT</t>
+        </is>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NT-VU</t>
+        </is>
       </c>
       <c r="C31">
         <v>6</v>
@@ -1008,12 +909,16 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VU-CR</t>
+        </is>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1022,12 +927,16 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VU-EN</t>
+        </is>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1036,12 +945,16 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VU-VU</t>
+        </is>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1050,9 +963,11 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>20</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
       </c>
       <c r="C35">
         <v>4</v>

--- a/data/Summary_evolution.xlsx
+++ b/data/Summary_evolution.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,61 +382,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chimères</t>
+          <t>Raies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LC-LC</t>
+          <t>CR-CR</t>
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3.06</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chimères</t>
+          <t>Raies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NT-LC</t>
+          <t>DD-CR</t>
         </is>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chimères</t>
+          <t>Raies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NT-VU</t>
+          <t>DD-VU</t>
         </is>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chimères</t>
+          <t>Raies</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EN-CR</t>
         </is>
       </c>
       <c r="C5">
@@ -454,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CR-CR</t>
+          <t>EN-EN</t>
         </is>
       </c>
       <c r="C6">
@@ -472,14 +477,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DD-CR</t>
+          <t>LC-LC</t>
         </is>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2.04</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="8">
@@ -490,14 +495,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DD-VU</t>
+          <t>LC-NT</t>
         </is>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3.06</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="9">
@@ -508,14 +513,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EN-CR</t>
+          <t>LR/nt-NT</t>
         </is>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EN-EN</t>
+          <t>NT-CR</t>
         </is>
       </c>
       <c r="C10">
@@ -544,14 +549,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LC-LC</t>
+          <t>NT-LC</t>
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>4.08</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +567,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LC-NT</t>
+          <t>NT-NT</t>
         </is>
       </c>
       <c r="C12">
@@ -580,14 +585,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LR/nt-NT</t>
+          <t>NT-VU</t>
         </is>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="14">
@@ -598,14 +603,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NT-CR</t>
+          <t>VU-EN</t>
         </is>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +621,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NT-LC</t>
+          <t>VU-VU</t>
         </is>
       </c>
       <c r="C15">
@@ -632,45 +637,40 @@
           <t>Raies</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>NT-NT</t>
-        </is>
-      </c>
       <c r="C16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>1.02</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Raies</t>
+          <t>Requins</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NT-VU</t>
+          <t>CR-CR</t>
         </is>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Raies</t>
+          <t>Requins</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VU-EN</t>
+          <t>DD-EN</t>
         </is>
       </c>
       <c r="C18">
@@ -683,32 +683,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Raies</t>
+          <t>Requins</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VU-VU</t>
+          <t>DD-LC</t>
         </is>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>1.02</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Raies</t>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DD-VU</t>
         </is>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>14.29</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="21">
@@ -719,14 +724,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CR-CR</t>
+          <t>EN-CR</t>
         </is>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>3.06</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="22">
@@ -737,14 +742,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DD-EN</t>
+          <t>LC-LC</t>
         </is>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>2.04</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="23">
@@ -755,14 +760,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DD-LC</t>
+          <t>LC-NT</t>
         </is>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>6.12</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="24">
@@ -773,14 +778,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DD-VU</t>
+          <t>LC-VU</t>
         </is>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>3.06</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="25">
@@ -791,14 +796,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EN-CR</t>
+          <t>NT-LC</t>
         </is>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="26">
@@ -809,14 +814,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LC-LC</t>
+          <t>NT-NT</t>
         </is>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>4.08</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="27">
@@ -827,14 +832,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LC-NT</t>
+          <t>NT-VU</t>
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>3.06</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="28">
@@ -845,14 +850,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LC-VU</t>
+          <t>VU-CR</t>
         </is>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="29">
@@ -863,14 +868,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NT-LC</t>
+          <t>VU-EN</t>
         </is>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>1.02</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="30">
@@ -881,14 +886,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NT-NT</t>
+          <t>VU-VU</t>
         </is>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>5.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="31">
@@ -897,82 +902,10 @@
           <t>Requins</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>NT-VU</t>
-        </is>
-      </c>
       <c r="C31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Requins</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>VU-CR</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Requins</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>VU-EN</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Requins</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>VU-VU</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Requins</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
         <v>4.08</v>
       </c>
     </row>

--- a/data/Summary_evolution.xlsx
+++ b/data/Summary_evolution.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,66 +382,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raies</t>
+          <t>Chim&lt;e8&gt;res</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CR-CR</t>
+          <t>LC-LC</t>
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raies</t>
+          <t>Chim&lt;e8&gt;res</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DD-CR</t>
+          <t>NT-LC</t>
         </is>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raies</t>
+          <t>Chim&lt;e8&gt;res</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DD-VU</t>
+          <t>NT-VU</t>
         </is>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3.06</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raies</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EN-CR</t>
+          <t>Chim&lt;e8&gt;res</t>
         </is>
       </c>
       <c r="C5">
@@ -459,7 +454,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EN-EN</t>
+          <t>CR-CR</t>
         </is>
       </c>
       <c r="C6">
@@ -477,14 +472,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LC-LC</t>
+          <t>DD-CR</t>
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4.08</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="8">
@@ -495,14 +490,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LC-NT</t>
+          <t>DD-VU</t>
         </is>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="9">
@@ -513,14 +508,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LR/nt-NT</t>
+          <t>EN-CR</t>
         </is>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NT-CR</t>
+          <t>EN-EN</t>
         </is>
       </c>
       <c r="C10">
@@ -549,14 +544,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NT-LC</t>
+          <t>LC-LC</t>
         </is>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1.02</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +562,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NT-NT</t>
+          <t>LC-NT</t>
         </is>
       </c>
       <c r="C12">
@@ -585,14 +580,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NT-VU</t>
+          <t>LR/nt-NT</t>
         </is>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="14">
@@ -603,14 +598,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VU-EN</t>
+          <t>NT-CR</t>
         </is>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="15">
@@ -621,7 +616,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VU-VU</t>
+          <t>NT-LC</t>
         </is>
       </c>
       <c r="C15">
@@ -637,40 +632,45 @@
           <t>Raies</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NT-NT</t>
+        </is>
+      </c>
       <c r="C16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>14.29</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Requins</t>
+          <t>Raies</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CR-CR</t>
+          <t>NT-VU</t>
         </is>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>3.06</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Requins</t>
+          <t>Raies</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DD-EN</t>
+          <t>VU-EN</t>
         </is>
       </c>
       <c r="C18">
@@ -683,37 +683,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Requins</t>
+          <t>Raies</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DD-LC</t>
+          <t>VU-VU</t>
         </is>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>6.12</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Requins</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DD-VU</t>
+          <t>Raies</t>
         </is>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>3.06</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="21">
@@ -724,14 +719,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EN-CR</t>
+          <t>CR-CR</t>
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>2.04</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="22">
@@ -742,14 +737,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LC-LC</t>
+          <t>DD-EN</t>
         </is>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>4.08</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="23">
@@ -760,14 +755,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LC-NT</t>
+          <t>DD-LC</t>
         </is>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>3.06</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="24">
@@ -778,14 +773,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LC-VU</t>
+          <t>DD-VU</t>
         </is>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>1.02</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="25">
@@ -796,14 +791,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NT-LC</t>
+          <t>EN-CR</t>
         </is>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="26">
@@ -814,14 +809,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NT-NT</t>
+          <t>LC-LC</t>
         </is>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>5.1</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="27">
@@ -832,14 +827,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NT-VU</t>
+          <t>LC-NT</t>
         </is>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>6.12</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="28">
@@ -850,14 +845,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VU-CR</t>
+          <t>LC-VU</t>
         </is>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="29">
@@ -868,14 +863,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VU-EN</t>
+          <t>NT-LC</t>
         </is>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>6.12</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="30">
@@ -886,14 +881,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VU-VU</t>
+          <t>NT-NT</t>
         </is>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>7.14</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="31">
@@ -902,10 +897,82 @@
           <t>Requins</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NT-VU</t>
+        </is>
+      </c>
       <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VU-CR</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VU-EN</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VU-VU</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Requins</t>
+        </is>
+      </c>
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>4.08</v>
       </c>
     </row>
